--- a/ExcelData/DataPlanning.xlsx
+++ b/ExcelData/DataPlanning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>MysqlDB</t>
   </si>
@@ -127,6 +127,596 @@
   </si>
   <si>
     <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>11/14/2018</t>
+  </si>
+  <si>
+    <t>'''</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2018-10-14</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>Test CASE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17/forecast/services/demandplan/initialcreate</t>
+  </si>
+  <si>
+    <t>CREATE DEMAND PLAN</t>
+  </si>
+  <si>
+    <t>Test CASE DESCRIPTION(1)</t>
+  </si>
+  <si>
+    <t>API(2)</t>
+  </si>
+  <si>
+    <t>City_id(3)</t>
+  </si>
+  <si>
+    <t>Week(4)</t>
+  </si>
+  <si>
+    <t>Year(5)</t>
+  </si>
+  <si>
+    <t>Product_id(6)</t>
+  </si>
+  <si>
+    <t>date(7)</t>
+  </si>
+  <si>
+    <t>hub_id(8)</t>
+  </si>
+  <si>
+    <t>percent_buffer(9)</t>
+  </si>
+  <si>
+    <t>unit_buffer(10)</t>
+  </si>
+  <si>
+    <t>final_value(11)</t>
+  </si>
+  <si>
+    <t>https://planning-api.licious.in/forecast/services/demandplan/create</t>
+  </si>
+  <si>
+    <t>Create Demand Plan with Buffers</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17/forecast/services/systemforecast/day</t>
+  </si>
+  <si>
+    <t>Generate system forecast Day</t>
+  </si>
+  <si>
+    <t>FROM(12)</t>
+  </si>
+  <si>
+    <t>TO(13)</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Generate System Forecast Slot level</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17:8080/forecast/services/generateSlotOrderAggregations</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17/forecast/services/generateSlotOrderAggregations</t>
+  </si>
+  <si>
+    <t>https://planning-api.licious.in/production/services/brining/generate</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Brining Plan</t>
+  </si>
+  <si>
+    <t>DP_Query(14)</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235922d122e'and date=</t>
+  </si>
+  <si>
+    <t>TC_01(0)</t>
+  </si>
+  <si>
+    <t>TC_001(1)</t>
+  </si>
+  <si>
+    <t>TC_002(2)</t>
+  </si>
+  <si>
+    <t>TC_003(3)</t>
+  </si>
+  <si>
+    <t>TC_004(4)</t>
+  </si>
+  <si>
+    <t>TC_005(5)</t>
+  </si>
+  <si>
+    <t>DP_EQuery(14)</t>
+  </si>
+  <si>
+    <t>HI_EQuery</t>
+  </si>
+  <si>
+    <t>select sum(received_quantity) from operationdataplan where sku='pr_57235922d122e' and to in ('1','4','10') and source='11' and dispatch_datetime=</t>
+  </si>
+  <si>
+    <t>CS_EQuery</t>
+  </si>
+  <si>
+    <t>select sum(stock_units) from closingstock where hub_id in ('1','4','10') and product_id='pr_57235922d122e' and osdate=</t>
+  </si>
+  <si>
+    <t>DispaPlan_EQuery</t>
+  </si>
+  <si>
+    <t>select sum(dispatch_plan_qty) from dispatch-plan where product_id='pr_57235922d122e' and cluster_id='B_C2' and dispatch_date="</t>
+  </si>
+  <si>
+    <t>HI_EQuery(15)</t>
+  </si>
+  <si>
+    <t>CS_EQuery(16)</t>
+  </si>
+  <si>
+    <t>DispaPlan_EQuery(17)</t>
+  </si>
+  <si>
+    <t>rd.readDataFromExcel(excelFilePath, "Dataplanning", 5, 14);</t>
+  </si>
+  <si>
+    <t>"select sum(received_quantity) from operationdataplan where sku='pr_57235922d122e' and to in ('1','4','10') and source='11' and dispatch_datetime="</t>
+  </si>
+  <si>
+    <t>select sum(received_quantity) from operationdataplan where sku='pr_57235922d122e' and to in ('1','4','10') and source='11' and dispatch_datetime=</t>
+  </si>
+  <si>
+    <t>select sum(dispatch_plan_qty) from dispatch-plan where product_id='pr_57235922d122e' and cluster_id='B_C2' and dispatch_date=</t>
+  </si>
+  <si>
+    <t>TC_006(6)</t>
+  </si>
+  <si>
+    <t>Production Plan</t>
+  </si>
+  <si>
+    <t>http://planning-api.licious.in/production/services/generate</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='ppr_5785b9065d7e1'and date=</t>
+  </si>
+  <si>
+    <t>select sum(received_quantity) from operationdataplan where sku='pr_5785b9065d7e1' and to in ('1','4','10') and source='11' and dispatch_datetime=</t>
+  </si>
+  <si>
+    <t>select sum(stock_units) from closingstock where hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1 and osdate=</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1'and date=</t>
+  </si>
+  <si>
+    <t>select sum(stock_units) from closingstock where hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1' and osdate=</t>
+  </si>
+  <si>
+    <t>TC_007(7)</t>
+  </si>
+  <si>
+    <t>Thawing Plan</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17/production/services/thawing/generate</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235922d122e'and date=</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Dashboard Loss sale</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17:8080/forecast/services/lossSale</t>
+  </si>
+  <si>
+    <t>TC_008(8)</t>
+  </si>
+  <si>
+    <t>TC_009(9)</t>
+  </si>
+  <si>
+    <t>https://planning-api.licious.in/production/services/systemdp/create</t>
+  </si>
+  <si>
+    <t>SystemDP</t>
+  </si>
+  <si>
+    <t>ck_id</t>
+  </si>
+  <si>
+    <t>CK_001</t>
+  </si>
+  <si>
+    <t>ck_id(18)</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>RM_CK_Ledger</t>
+  </si>
+  <si>
+    <t>closingStock</t>
+  </si>
+  <si>
+    <t>openingStock</t>
+  </si>
+  <si>
+    <t>qtyInProduction</t>
+  </si>
+  <si>
+    <t>receivedQty</t>
+  </si>
+  <si>
+    <t>rmId</t>
+  </si>
+  <si>
+    <t>rmIndent</t>
+  </si>
+  <si>
+    <t>rmName</t>
+  </si>
+  <si>
+    <t>rmProductionPlan</t>
+  </si>
+  <si>
+    <t>uom</t>
+  </si>
+  <si>
+    <t>updatedBy</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>=VALUE(B5)</t>
+  </si>
+  <si>
+    <t>DemandPLanDate()</t>
+  </si>
+  <si>
+    <t>closingStock(19)</t>
+  </si>
+  <si>
+    <t>openingStock(20)</t>
+  </si>
+  <si>
+    <t>qtyInProduction(21)</t>
+  </si>
+  <si>
+    <t>receivedQty(22)</t>
+  </si>
+  <si>
+    <t>rmId(23)</t>
+  </si>
+  <si>
+    <t>rmIndent(24)</t>
+  </si>
+  <si>
+    <t>rmName(25)</t>
+  </si>
+  <si>
+    <t>rmProductionPlan(26)</t>
+  </si>
+  <si>
+    <t>uom(27)</t>
+  </si>
+  <si>
+    <t>updatedBy(28)</t>
+  </si>
+  <si>
+    <t>version(29)</t>
+  </si>
+  <si>
+    <t>DemandPLanDate(30)</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-11</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>2018-11-10</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>2018-11-07</t>
+  </si>
+  <si>
+    <t>2018-11-06</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>2018-11-04</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235b81a66f9'and date=</t>
+  </si>
+  <si>
+    <t>select sum(stock_units) from closingstock where hub_id in ('1','4','10') and product_id='pr_57235b81a66f9' and osdate=</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>and version=</t>
+  </si>
+  <si>
+    <t>2018-11-16</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>Deman Plan (max version)(31)</t>
+  </si>
+  <si>
+    <t>DemandPlan (max version)(31)</t>
+  </si>
+  <si>
+    <t>Demand Plan (max version)(31)</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235922d122e' and date=</t>
+  </si>
+  <si>
+    <r>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>readDataFromExcel</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF7E504F"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>excelFilePath</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"Dataplanning"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>, 5, 30)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss sale </t>
+  </si>
+  <si>
+    <t>Loss sale (32)</t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_today) product_id='pr_5785b9065d7e1'and date=</t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_today) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1'and date=</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1'' and date=</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235b81a66f9'' and date=</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and hub_id in ('1','4','10') and product_id='pr_57235b81a66f9' and date=</t>
+  </si>
+  <si>
+    <t>http://13.126.207.17:8080/production/services/thawing/generate</t>
+  </si>
+  <si>
+    <r>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>readDataFromExcel</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF7E504F"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>excelFilePath</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"Dataplanning"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>, 1, 4)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://planning-api.licious.in/forecast/services/demandplan/initialcreate</t>
+  </si>
+  <si>
+    <t>10/22/2018</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
   </si>
 </sst>
 </file>
@@ -134,7 +724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="40">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -271,6 +861,132 @@
       <scheme val="minor"/>
       <color rgb="FF3933FF"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF4E9072"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7E504F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <color rgb="FF7E504F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7E504F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -284,181 +1000,217 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFC0007"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6BAE1"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,9 +1220,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -485,33 +1235,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -526,9 +1268,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -543,9 +1283,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -560,17 +1298,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -579,9 +1313,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -635,7 +1367,7 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -663,6 +1395,37 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
@@ -1016,92 +1779,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="Z1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.57031250" defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="27.57031250" defaultRowHeight="15.000000" customHeight="1"/>
   <cols>
     <col min="1" max="1" style="2" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="2" width="9.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="10.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="14.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="11.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="7.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="14.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="10.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="2" width="50.63000107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="9.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="14.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="11.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="7.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="14.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="10.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="14" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="39.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" width="20.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="23.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.300000">
+    <row r="1" spans="1:33" ht="34.050000">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.300000">
+    <row r="2" spans="1:33" ht="17.300000">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="AE2" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="34.050000">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="0">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>23</v>
       </c>
+      <c r="AE3" s="39" t="s">
+        <v>144</v>
+      </c>
     </row>
+    <row r="4" spans="1:33" ht="34.050000">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE4" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="34.050000">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="AE5" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="34.050000">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="17.300000">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="17.300000">
+      <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE8" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="17.300000">
+      <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE9" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="17.300000">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="S10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="16.500000">
+      <c r="AE11" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="16.500000">
+      <c r="AE12" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="17.300000">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG13" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="17.300000">
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" ht="16.500000"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId0" ref="C5"/>
+    <hyperlink r:id="rId1" ref="C3"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/ExcelData/DataPlanning.xlsx
+++ b/ExcelData/DataPlanning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>MysqlDB</t>
   </si>
@@ -718,13 +718,106 @@
   <si>
     <t>2018-10-22</t>
   </si>
+  <si>
+    <t>11/22/2018</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>pr_57235922d122e</t>
+  </si>
+  <si>
+    <t>pr_57235b81a66f9</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>brining</t>
+  </si>
+  <si>
+    <t>thawing</t>
+  </si>
+  <si>
+    <t>Type(33)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2018-11-23</t>
+  </si>
+  <si>
+    <t>SystemForecastDay_Query</t>
+  </si>
+  <si>
+    <t>select sum(total) from system-forecast where hub_id ='4' and product_id='pr_5785b9065d7e1' and date ='2018-11-23'</t>
+  </si>
+  <si>
+    <t>SystemForecastDay_Query(34)</t>
+  </si>
+  <si>
+    <t>SlotAggregationData(35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(quantity) from slot-aggregation-data where%20 hub_id in ('4') and product_id='pr_5785b9065d7e1' and date in( </t>
+  </si>
+  <si>
+    <t>LossSaleQuantity_Query(36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(loss_sale_qty) from slot-aggregation-data where%20 hub_id in ('4') and product_id='pr_5785b9065d7e1' and date in( </t>
+  </si>
+  <si>
+    <t>select sum(total) from system-forecast where hub_id ='4' and product_id='pr_5785b9065d7e1' and date =</t>
+  </si>
+  <si>
+    <t>select sum(quantity) from slot-aggregation-data where%20 hub_id in ('4') and product_id='pr_5785b9065d7e1' and date in( %20</t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_qty) from slot-aggregation-data where%20 hub_id in ('4') and product_id='pr_5785b9065d7e1' and date in( %20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(quantity) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in %20( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(loss_sale_qty) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in%20( </t>
+  </si>
+  <si>
+    <t>select sum(quantity) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in %20( %20</t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_qty) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in%20( %20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(quantity) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in </t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_qty) from slot-aggregation-data where%20 hub_id ='4' and product_id='pr_5785b9065d7e1' and date in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(quantity) from slot-aggregation-data where  hub_id ='4' and product_id='pr_5785b9065d7e1' and date in </t>
+  </si>
+  <si>
+    <t>select sum(loss_sale_qty) from slot-aggregation-data where hub_id ='4' and product_id='pr_5785b9065d7e1' and date in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -987,8 +1080,14 @@
       <scheme val="minor"/>
       <color rgb="FF3933FF"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +1309,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6BAE1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC0007"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1367,7 +1478,7 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1426,6 +1537,23 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
@@ -1779,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="AH1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.57031250" defaultRowHeight="15.000000" customHeight="1"/>
@@ -1805,108 +1933,120 @@
     <col min="18" max="18" width="23.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="34.050000">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:37" s="48" customFormat="1" ht="33.750000" customHeight="1">
+      <c r="A1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="AH1" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="17.300000">
+    <row r="2" spans="1:37" ht="17.300000">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -1941,7 +2081,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="34.050000">
+    <row r="3" spans="1:37" ht="34.050000">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1954,7 +2094,7 @@
       <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -1982,7 +2122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="34.050000">
+    <row r="4" spans="1:37" ht="34.050000">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -1998,11 +2138,20 @@
       <c r="N4" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="AE4" s="39" t="s">
-        <v>144</v>
+      <c r="AE4" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="34.050000">
+    <row r="5" spans="1:37" ht="34.050000">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2023,7 +2172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="34.050000">
+    <row r="6" spans="1:37" ht="34.050000">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -2033,6 +2182,18 @@
       <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E6" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>189</v>
+      </c>
       <c r="M6" s="31" t="s">
         <v>155</v>
       </c>
@@ -2051,17 +2212,23 @@
       <c r="R6" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="S6" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="AD6" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="39" t="s">
-        <v>144</v>
+      <c r="AE6" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="AF6" s="21" t="s">
         <v>168</v>
       </c>
+      <c r="AH6" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" ht="17.300000">
+    <row r="7" spans="1:37" ht="17.300000">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2071,6 +2238,18 @@
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="E7" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>189</v>
+      </c>
       <c r="M7" s="17" t="s">
         <v>174</v>
       </c>
@@ -2086,14 +2265,20 @@
       <c r="Q7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AE7" s="39" t="s">
-        <v>144</v>
+      <c r="S7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="AF7" s="21" t="s">
         <v>178</v>
       </c>
+      <c r="AH7" s="41" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" ht="17.300000">
+    <row r="8" spans="1:37" ht="17.300000">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -2103,6 +2288,18 @@
       <c r="C8" s="23" t="s">
         <v>181</v>
       </c>
+      <c r="E8" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>189</v>
+      </c>
       <c r="M8" s="17" t="s">
         <v>174</v>
       </c>
@@ -2115,22 +2312,28 @@
       <c r="Q8" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="AE8" s="39" t="s">
-        <v>144</v>
+      <c r="S8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>180</v>
       </c>
+      <c r="AH8" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" ht="17.300000">
+    <row r="9" spans="1:37" ht="17.300000">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE9" s="39" t="s">
-        <v>144</v>
+      <c r="AE9" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.300000">
+    <row r="10" spans="1:37" ht="17.300000">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
@@ -2145,21 +2348,21 @@
         <v>115</v>
       </c>
       <c r="AD10" s="39"/>
-      <c r="AE10" s="39" t="s">
-        <v>144</v>
+      <c r="AE10" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16.500000">
-      <c r="AE11" s="39" t="s">
-        <v>144</v>
+    <row r="11" spans="1:37" ht="16.500000">
+      <c r="AE11" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="16.500000">
-      <c r="AE12" s="39" t="s">
-        <v>144</v>
+    <row r="12" spans="1:37" ht="16.500000">
+      <c r="AE12" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.300000">
+    <row r="13" spans="1:37" ht="17.300000">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -2178,8 +2381,8 @@
       <c r="O13" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="AE13" s="39" t="s">
-        <v>144</v>
+      <c r="AE13" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="AF13" s="21" t="s">
         <v>168</v>
@@ -2188,7 +2391,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="17.300000">
+    <row r="15" spans="1:37" ht="17.300000">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>

--- a/ExcelData/DataPlanning.xlsx
+++ b/ExcelData/DataPlanning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>MysqlDB</t>
   </si>
@@ -811,13 +811,190 @@
   <si>
     <t>select sum(loss_sale_qty) from slot-aggregation-data where hub_id ='4' and product_id='pr_5785b9065d7e1' and date in</t>
   </si>
+  <si>
+    <t>Dispatch Plan</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1'%20 and hub_id in ('1') and product_id='pr_5785b9065d7e1' and date='2018-11-21' and version='0'</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1'%20 and hub_id in ('1') and product_id='pr_5785b9065d7e1' and date='2018-11-21'</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1'%20 and hub_id in ('1') and product_id='pr_5785b9065d7e1' and date</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1'%20 and hub_id in ('1') and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1'%20 and hub_id in ('1') and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>https://planning-api.licious.in/production/dispatchplan</t>
+  </si>
+  <si>
+    <t>Actual(37)</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>11/21/2018</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and hub_id ='1' and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1'and hub_id ='1' and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>Demand_Plan_City</t>
+  </si>
+  <si>
+    <t>select+sum(final_forecast)+from+demand-plan+where+city_id='1' and cluster_id in ('B_C1','B_C2','B_C3','B_C4') and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='1' and cluster_id in ('B_C1','B_C2','B_C3','B_C4') and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>Production_Plan</t>
+  </si>
+  <si>
+    <t>select quantity_to_produce from  production-plan-cluster where product_id='pr_5785b9065d7e1' and cluster_id='B_C2' and production_date=</t>
+  </si>
+  <si>
+    <t>Demand_Plan_City(38)</t>
+  </si>
+  <si>
+    <t>Production_Plan(39)</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='1' and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select sum(quantity_to_produce) from%20 production-plan-cluster where product_id='pr_5785b9065d7e1' and cluster_id='B_C2' and production_date=</t>
+  </si>
+  <si>
+    <t>select sum(quantity_to_produce) from  production-plan-cluster where product_id='pr_5785b9065d7e1' and cluster_id='B_C2' and production_date=</t>
+  </si>
+  <si>
+    <t>Schedule_Order(40)</t>
+  </si>
+  <si>
+    <t>select sum(order_item_quantity) from orderdataplannew where product_id='pr_5785b9065d7e1' and sheduled='2018-11-26' and hub_id='4' and created_at&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(order_item_quantity) from orderdataplannew where product_id='pr_5785b9065d7e1' and and hub_id='4' and sheduled= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(order_item_quantity) from orderdataplannew where product_id='pr_5785b9065d7e1' and  hub_id='4' and sheduled= </t>
+  </si>
+  <si>
+    <t>HUB_ID</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>HUB_ID(41)</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='1' and product_id='pr_5785b9065d7e1' and hub_id =</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='1' and cluster_id = 'B_C2' and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='1' and product_id='pr_5785b9065d7e1' and cluster_id =</t>
+  </si>
+  <si>
+    <t>select sum(quantity_to_produce) from  production-plan-cluster where product_id='pr_5785b9065d7e1' and cluster_id=</t>
+  </si>
+  <si>
+    <t>TC_009(10)</t>
+  </si>
+  <si>
+    <t>Dispatch Plan_CITY_ID 1</t>
+  </si>
+  <si>
+    <t>Dispatch Plan_CITY_ID 2</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where city_id='2' and product_id='pr_5785b9065d7e1' and hub_id =</t>
+  </si>
+  <si>
+    <t>select max(version) from demand-plan where city_id='2' and product_id='pr_5785b9065d7e1' and date=</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='12 and product_id='pr_5785b9065d7e1' and cluster_id =</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='2 'and product_id='pr_5785b9065d7e1' and cluster_id =</t>
+  </si>
+  <si>
+    <t>select sum(final_forecast) from demand-plan where  city_id='2' and product_id='pr_5785b9065d7e1' and cluster_id =</t>
+  </si>
+  <si>
+    <t>select sum(order_item_quantity) from orderdataplannew where product_id='pr_5785b9065d7e1' and  hub_id=</t>
+  </si>
+  <si>
+    <t>Hydrabad_DispatchPlan</t>
+  </si>
+  <si>
+    <t>Bangalore_DispatchPlan</t>
+  </si>
+  <si>
+    <t>select sum(dispatch_plan_qty) from dispatch-plan where product_id='pr_5785b9065d7e1' and cluster_id in ('H_C1','H_C2') and dispatch_date=</t>
+  </si>
+  <si>
+    <t>Hydrabad_DispatchPlan(42)</t>
+  </si>
+  <si>
+    <t>Bangalore_DispatchPlan(43)</t>
+  </si>
+  <si>
+    <t>select sum(dispatch_plan_qty) from dispatch-plan where product_id='pr_5785b9065d7e1' and cluster_id in ('B_C1','B_C2','B_C3','B_C4') and dispatch_date=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -1081,6 +1258,19 @@
       <color rgb="FF3933FF"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1478,7 +1668,7 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1554,6 +1744,12 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
@@ -1907,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView topLeftCell="AN1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.57031250" defaultRowHeight="15.000000" customHeight="1"/>
@@ -1931,9 +2127,11 @@
     <col min="16" max="16" width="39.50500107" customWidth="1" outlineLevel="0"/>
     <col min="17" max="17" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="18" max="18" width="23.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="42" max="42" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="43" max="43" width="19.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="48" customFormat="1" ht="33.750000" customHeight="1">
+    <row r="1" spans="1:44" s="48" customFormat="1" ht="33.750000" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>75</v>
       </c>
@@ -2045,8 +2243,29 @@
       <c r="AK1" s="48" t="s">
         <v>205</v>
       </c>
+      <c r="AL1" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM1" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN1" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO1" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP1" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ1" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR1" s="48" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" ht="17.300000">
+    <row r="2" spans="1:44" ht="17.300000">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2080,8 +2299,11 @@
       <c r="AE2" s="39" t="s">
         <v>186</v>
       </c>
+      <c r="AP2" s="56" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" ht="34.050000">
+    <row r="3" spans="1:44" ht="34.050000">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -2121,8 +2343,11 @@
       <c r="AE3" s="39" t="s">
         <v>144</v>
       </c>
+      <c r="AP3" s="56" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" ht="34.050000">
+    <row r="4" spans="1:44" ht="34.050000">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2150,8 +2375,11 @@
       <c r="AK4" s="0" t="s">
         <v>217</v>
       </c>
+      <c r="AP4" s="56" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" ht="34.050000">
+    <row r="5" spans="1:44" ht="34.050000">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2171,8 +2399,11 @@
       <c r="AE5" s="39" t="s">
         <v>144</v>
       </c>
+      <c r="AP5" s="56" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" ht="34.050000">
+    <row r="6" spans="1:44" ht="34.050000">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -2227,8 +2458,11 @@
       <c r="AH6" s="36" t="s">
         <v>194</v>
       </c>
+      <c r="AP6" s="56" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" ht="17.300000">
+    <row r="7" spans="1:44" ht="17.300000">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2277,8 +2511,11 @@
       <c r="AH7" s="41" t="s">
         <v>193</v>
       </c>
+      <c r="AP7" s="56" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" ht="17.300000">
+    <row r="8" spans="1:44" ht="17.300000">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -2324,26 +2561,73 @@
       <c r="AH8" s="41" t="s">
         <v>195</v>
       </c>
+      <c r="AP8" s="56" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" ht="17.300000">
+    <row r="9" spans="1:44" ht="34.050000">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>115</v>
+      </c>
       <c r="AE9" s="40" t="s">
         <v>189</v>
       </c>
+      <c r="AF9" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL9" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP9" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" ht="17.300000">
+    <row r="10" spans="1:44" ht="34.050000">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>265</v>
+      </c>
       <c r="S10" s="26" t="s">
         <v>115</v>
       </c>
@@ -2351,18 +2635,45 @@
       <c r="AE10" s="40" t="s">
         <v>189</v>
       </c>
+      <c r="AF10" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP10" s="56" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" ht="16.500000">
+    <row r="11" spans="1:44" ht="17.300000">
+      <c r="A11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="AE11" s="40" t="s">
         <v>189</v>
       </c>
+      <c r="AP11" s="56" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" ht="16.500000">
+    <row r="12" spans="1:44" ht="16.500000">
       <c r="AE12" s="40" t="s">
         <v>189</v>
       </c>
+      <c r="AP12" s="56" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" ht="17.300000">
+    <row r="13" spans="1:44" ht="17.300000">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -2390,8 +2701,16 @@
       <c r="AG13" s="21" t="s">
         <v>173</v>
       </c>
+      <c r="AP13" s="56" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" ht="17.300000">
+    <row r="14" spans="1:44" ht="16.500000">
+      <c r="AP14" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="17.300000">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
@@ -2400,6 +2719,9 @@
       </c>
       <c r="S15" s="26" t="s">
         <v>115</v>
+      </c>
+      <c r="AP15" s="56" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="16.500000"/>
